--- a/Action Items Tracker.xlsx
+++ b/Action Items Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazhinigopal/Desktop/DAV Bootcamp/20 Final Project/Fake_News_Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06739D3-D395-A940-ACC2-7D392990109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19A99D4-656A-1A47-984C-D3651C8E178C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C0E8822A-E952-3943-A091-8C8A9793C91F}"/>
   </bookViews>
@@ -757,12 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,9 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,10 +841,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC6A791-3EFA-2F40-BB84-73C8821E3B02}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,262 +1201,262 @@
       <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="3"/>
@@ -1481,7 +1481,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="3"/>
